--- a/SupportingDocs/Config_TEMPLATE_180821.xlsx
+++ b/SupportingDocs/Config_TEMPLATE_180821.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\oren\preprocessing\SupportingDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp for analysis\Git\LocalCopyOfRemote\Flinders-EEG-pipeline\SupportingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91499FF-EB42-4878-BF75-C1CDA1EDE535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18060" windowHeight="4695"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,7 +229,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,11 +562,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +581,7 @@
     <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="54.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="176.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -651,7 +652,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
